--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
@@ -5,28 +5,227 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PALL AUSTAR ERP &amp; Code Bar Project--20170501\吹膜工序\B 下拉菜单文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055"/>
+    <workbookView xWindow="840" yWindow="285" windowWidth="15480" windowHeight="8130" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="20160630" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20150831" sheetId="4" r:id="rId2"/>
+    <sheet name="20160630" sheetId="5" r:id="rId3"/>
+    <sheet name="20170926" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>供料工序</t>
+  </si>
+  <si>
+    <t>生产废弃物是否已清，卫生是否已打扫</t>
+  </si>
+  <si>
+    <t>吹膜工序</t>
+  </si>
+  <si>
+    <t>使用的文件、设备运行参数卡是否已归档</t>
+  </si>
+  <si>
+    <t>生产的产品是否定置摆放，粘贴标签，登记台帐</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>清场日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清场前批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清场工序</t>
+  </si>
+  <si>
+    <t>清场要点</t>
+  </si>
+  <si>
+    <t>清场人</t>
+  </si>
+  <si>
+    <t>填写的供料记录是否已归档</t>
+  </si>
+  <si>
+    <t>设备是否按程序关机，并切断电源</t>
+  </si>
+  <si>
+    <t>设备和工位器具是否已清洁</t>
+  </si>
+  <si>
+    <t>其它：</t>
+  </si>
+  <si>
+    <t>填写的记录是否已归档</t>
+  </si>
+  <si>
+    <t>设备是否已按程序关机，并切断电源</t>
+  </si>
+  <si>
+    <t>生产用半成品标签是否已销毁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           年    月    日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜工序清场记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检 查 人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用剩余的原料是否称重退库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：按“清场要点”已完成的在“是”栏中标“√”，未完成的“否”栏中标“×”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP-MFG-301-R11A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP-MFG-301-R14A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传料日期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否清洁合格</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装是否完好</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>传料操作人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>复核人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：吹膜用料外包装表面应干净无积尘，每天由生产指定人员传递物料，传料时应检查外包装应完好，并用专用毛巾粘清水对包装外表面进行清洁，传入供料间物料应干净整洁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -61,7 +260,7 @@
       </rPr>
       <t>件</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -85,21 +284,25 @@
       </rPr>
       <t>/kg</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜工序传料记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>包装
 是否完好</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>是否
 清洁合格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>操作人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -134,7 +337,7 @@
       </rPr>
       <t>□</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -166,20 +369,24 @@
       </rPr>
       <t>日</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数量
 (件)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜工序领料退料记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>领料日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>物料代码：SPM-PE-01□  SPM-PE-04□ SPM-PE-06□ SPM-PE-11□</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>备注：由生产指定人员领料并传递物料，物料外包装表面应干净无积尘，传料时检查外包装应完好，并用专用毛巾粘清水对包装外表面进行清洁，传入供料间物料应干净整洁。</t>
@@ -187,46 +394,186 @@
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Q</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>W</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">E </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>此表为一种规格物料，多种物料多个表格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>累计：不同规格累计数量，用于计算物料平衡。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>退料：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP-MFG-301-R14A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料日期 时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">物料代码： </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料批号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜工序领料退料记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SOP-MFG-301-R14A吹膜工序领料退料记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>包装是否完好</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否清洁合格</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>退料：            KG</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量
+(件)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规格
+（kg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>件）</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +597,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -278,6 +631,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -320,6 +688,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -335,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -496,13 +870,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,11 +900,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,28 +945,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -563,53 +984,92 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +1089,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -915,13 +1375,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44"/>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44"/>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="44"/>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="44"/>
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="44"/>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="44"/>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="44"/>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="44"/>
+      <c r="B17" s="9">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="44"/>
+      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
+      <c r="B19" s="9">
+        <v>7</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44"/>
+      <c r="B20" s="9">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" ht="1.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:F23"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.67" right="0.70866141732283472" top="0.86" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:J24"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.67" right="0.70866141732283472" top="0.71" bottom="0.17" header="0.31496062992125984" footer="0.26"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -929,530 +2170,530 @@
     <col min="1" max="1" width="11.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="15" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
     <col min="7" max="8" width="12.375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>1</v>
+      <c r="A3" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="A5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="A6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="A11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="A12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="A15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="A16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="A19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="A21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="A22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="A23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="A27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="A30" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="55"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
+      <c r="B35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
+      <c r="B36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1461,9 +2702,537 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="E29:F29"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.64" right="0.3" top="0.70866141732283472" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>7</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>8</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>9</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>10</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
+        <v>12</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
+        <v>14</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
+        <v>15</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>16</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
+        <v>17</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
+        <v>18</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:J26"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.62992125984251968" right="0.31496062992125984" top="0.70866141732283472" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="840" yWindow="285" windowWidth="15480" windowHeight="8130" activeTab="3"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -450,41 +445,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -572,8 +532,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,6 +971,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1028,12 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1131,7 +1091,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,10 +1123,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,7 +1157,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1374,14 +1332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="3" customWidth="1"/>
@@ -1391,7 +1349,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.7" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1403,43 +1361,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" ht="39" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1447,7 +1405,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1457,16 +1415,16 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
+      <c r="A7" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1475,84 +1433,84 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:6" ht="21" customHeight="1">
+      <c r="A8" s="46"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:6" ht="21" customHeight="1">
+      <c r="A9" s="46"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="46"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:6" ht="21" customHeight="1">
+      <c r="A11" s="46"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:6" ht="21" customHeight="1">
+      <c r="A12" s="46"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:6" ht="21" customHeight="1">
+      <c r="A13" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9">
@@ -1561,151 +1519,143 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:6" ht="21" customHeight="1">
+      <c r="A14" s="46"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:6" ht="21" customHeight="1">
+      <c r="A15" s="46"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
+    <row r="16" spans="1:6" ht="21" customHeight="1">
+      <c r="A16" s="46"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:6" ht="21" customHeight="1">
+      <c r="A17" s="46"/>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:6" ht="21" customHeight="1">
+      <c r="A18" s="46"/>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:6" ht="21" customHeight="1">
+      <c r="A19" s="46"/>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:6" ht="21" customHeight="1">
+      <c r="A20" s="46"/>
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6" ht="1.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:6" ht="1.7" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1722,6 +1672,14 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1731,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1741,7 +1699,7 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
@@ -1754,7 +1712,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="19.7" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1770,21 +1728,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" s="22" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1832,7 +1790,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="20.25" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1848,7 +1806,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="20.25" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1864,7 +1822,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="20.25" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1880,7 +1838,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1896,7 +1854,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="20.25" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1912,7 +1870,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="20.25" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1928,7 +1886,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="20.25" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1944,7 +1902,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1960,7 +1918,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1976,7 +1934,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1992,7 +1950,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2008,7 +1966,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2024,7 +1982,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2040,7 +1998,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2056,7 +2014,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -2072,7 +2030,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2088,7 +2046,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2104,7 +2062,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="13.5" customHeight="1">
       <c r="A22" s="49" t="s">
         <v>37</v>
       </c>
@@ -2118,7 +2076,7 @@
       <c r="I22" s="50"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="52"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
@@ -2130,7 +2088,7 @@
       <c r="I23" s="50"/>
       <c r="J23" s="51"/>
     </row>
-    <row r="24" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -2155,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -2165,7 +2123,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
@@ -2177,7 +2135,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="19.7" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2191,19 +2149,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A3" s="56" t="s">
         <v>50</v>
       </c>
@@ -2215,7 +2173,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
@@ -2241,7 +2199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2257,7 +2215,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>46</v>
       </c>
@@ -2273,7 +2231,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +2247,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="24" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>46</v>
       </c>
@@ -2305,7 +2263,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>46</v>
       </c>
@@ -2321,7 +2279,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="24" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
@@ -2337,7 +2295,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="24" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>46</v>
       </c>
@@ -2353,7 +2311,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="24" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
@@ -2369,7 +2327,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="24" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2343,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="24" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
@@ -2401,7 +2359,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="24" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>46</v>
       </c>
@@ -2417,7 +2375,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="24" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2391,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="24" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>46</v>
       </c>
@@ -2449,7 +2407,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="24" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>46</v>
       </c>
@@ -2465,7 +2423,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="24" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>46</v>
       </c>
@@ -2481,7 +2439,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="24" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>46</v>
       </c>
@@ -2497,7 +2455,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="24" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
@@ -2513,7 +2471,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="24" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>46</v>
       </c>
@@ -2529,7 +2487,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="24" customHeight="1">
       <c r="A23" s="23" t="s">
         <v>46</v>
       </c>
@@ -2545,7 +2503,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="24" customHeight="1">
       <c r="A24" s="23" t="s">
         <v>46</v>
       </c>
@@ -2561,7 +2519,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="24" customHeight="1">
       <c r="A25" s="23" t="s">
         <v>46</v>
       </c>
@@ -2577,7 +2535,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="24" customHeight="1">
       <c r="A26" s="23" t="s">
         <v>46</v>
       </c>
@@ -2593,7 +2551,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="24" customHeight="1">
       <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
@@ -2609,7 +2567,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="24" customHeight="1">
       <c r="A28" s="23" t="s">
         <v>46</v>
       </c>
@@ -2625,7 +2583,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="24" customHeight="1">
       <c r="A29" s="32" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2603,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="49" t="s">
         <v>51</v>
       </c>
@@ -2657,7 +2615,7 @@
       <c r="G30" s="50"/>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="52"/>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -2667,7 +2625,7 @@
       <c r="G31" s="50"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="42.75" customHeight="1" thickBot="1">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -2677,7 +2635,7 @@
       <c r="G32" s="54"/>
       <c r="H32" s="55"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6">
       <c r="B35" s="29" t="s">
         <v>56</v>
       </c>
@@ -2686,7 +2644,7 @@
       <c r="E35" s="31"/>
       <c r="F35" s="30"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6">
       <c r="B36" s="29" t="s">
         <v>57</v>
       </c>
@@ -2710,17 +2668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="3" customWidth="1"/>
@@ -2734,7 +2692,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2750,21 +2708,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>61</v>
       </c>
@@ -2780,7 +2738,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="22" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>66</v>
       </c>
@@ -2791,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="D4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>70</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>71</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>64</v>
@@ -2812,7 +2770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="20.25" customHeight="1">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -2821,16 +2779,12 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="20.25" customHeight="1">
       <c r="A6" s="17">
         <v>2</v>
       </c>
@@ -2839,16 +2793,12 @@
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="20.25" customHeight="1">
       <c r="A7" s="17">
         <v>3</v>
       </c>
@@ -2857,16 +2807,12 @@
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" s="17">
         <v>4</v>
       </c>
@@ -2875,16 +2821,12 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="20.25" customHeight="1">
       <c r="A9" s="17">
         <v>5</v>
       </c>
@@ -2893,16 +2835,12 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="20.25" customHeight="1">
       <c r="A10" s="17">
         <v>6</v>
       </c>
@@ -2911,16 +2849,12 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="20.25" customHeight="1">
       <c r="A11" s="17">
         <v>7</v>
       </c>
@@ -2929,16 +2863,12 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="17">
         <v>8</v>
       </c>
@@ -2947,16 +2877,12 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="17">
         <v>9</v>
       </c>
@@ -2965,16 +2891,12 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="17">
         <v>10</v>
       </c>
@@ -2983,16 +2905,12 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="17">
         <v>11</v>
       </c>
@@ -3001,16 +2919,12 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="17">
         <v>12</v>
       </c>
@@ -3019,16 +2933,12 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="17">
         <v>13</v>
       </c>
@@ -3037,16 +2947,12 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="17">
         <v>14</v>
       </c>
@@ -3055,16 +2961,12 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="17">
         <v>15</v>
       </c>
@@ -3073,134 +2975,76 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
-        <v>16</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
-        <v>17</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
-        <v>18</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A20" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
+      <c r="G20" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:J23"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3210,14 +3054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3225,12 +3069,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27BB70D5-95B5-A543-A927-13E4832E6850}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="285" windowWidth="15480" windowHeight="8130" activeTab="3"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="18340" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,12 +538,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -612,7 +618,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,7 +656,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -971,30 +977,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1033,7 +1039,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,7 +1055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1091,7 +1097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1123,9 +1129,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,6 +1181,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1332,24 +1374,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.1640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.7" customHeight="1">
+    <row r="1" spans="1:6" ht="19.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1362,39 +1404,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -1405,7 +1447,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1">
+    <row r="6" spans="1:6" ht="22" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1415,16 +1457,16 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1433,84 +1475,84 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="46"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9">
@@ -1519,143 +1561,151 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="46"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-    </row>
-    <row r="23" spans="1:6" ht="1.7" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" ht="1.75" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1672,14 +1722,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1689,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1699,20 +1741,20 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="11.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="3" customWidth="1"/>
     <col min="9" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.7" customHeight="1">
+    <row r="1" spans="1:10" ht="19.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1729,18 +1771,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="22" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -2113,7 +2155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -2123,19 +2165,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.7" customHeight="1">
+    <row r="1" spans="1:8" ht="19.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2150,16 +2192,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A3" s="56" t="s">
@@ -2668,27 +2710,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="A7:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2709,18 +2751,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -2785,266 +2827,70 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A6" s="17">
-        <v>2</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A7" s="17">
-        <v>3</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A8" s="17">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A9" s="17">
-        <v>5</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A10" s="17">
-        <v>6</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A11" s="17">
-        <v>7</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="17">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A13" s="17">
-        <v>9</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" s="17">
-        <v>10</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A15" s="17">
-        <v>11</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A16" s="17">
-        <v>12</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="17">
-        <v>14</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="17">
-        <v>15</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G6" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A7" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:J23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:J9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3054,14 +2900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,12 +2915,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27BB70D5-95B5-A543-A927-13E4832E6850}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1CA49B91-9D4F-B949-9A4A-6D9BFC0D5C4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="18340" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="18340" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -853,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,6 +977,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -995,12 +1001,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1036,6 +1036,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,39 +1410,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -1457,16 +1463,16 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1475,84 +1481,84 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9">
@@ -1561,151 +1567,143 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="44"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" ht="1.75" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1722,6 +1720,14 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1771,18 +1777,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" s="22" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -2192,16 +2198,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A3" s="56" t="s">
@@ -2717,7 +2723,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J9"/>
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2751,18 +2757,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -2816,29 +2822,29 @@
       <c r="A5" s="17">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="62" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="57" t="s">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R14 吹膜工序领料退料记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1CA49B91-9D4F-B949-9A4A-6D9BFC0D5C4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75CA9413-E920-6949-AEC9-EF4F0A8AC01E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="18340" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -977,30 +977,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1036,12 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,10 +1463,10 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1481,10 +1481,10 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
@@ -1495,10 +1495,10 @@
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
@@ -1509,10 +1509,10 @@
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
@@ -1523,10 +1523,10 @@
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
@@ -1537,10 +1537,10 @@
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
@@ -1551,10 +1551,10 @@
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1">
@@ -1567,10 +1567,10 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1">
@@ -1581,10 +1581,10 @@
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
@@ -1595,10 +1595,10 @@
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1">
@@ -1609,10 +1609,10 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
@@ -1623,10 +1623,10 @@
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
@@ -1637,10 +1637,10 @@
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
@@ -1651,10 +1651,10 @@
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
@@ -1665,10 +1665,10 @@
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1">
@@ -1704,6 +1704,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1720,14 +1728,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2111,42 +2111,42 @@
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="52"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2210,16 +2210,16 @@
       <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" s="22" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="24" t="s">
@@ -2644,44 +2644,44 @@
       <c r="D29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="52"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="1:8" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="29" t="s">
@@ -2722,8 +2722,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2836,61 +2836,59 @@
       <c r="A6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
